--- a/test-scenarios/flight-test-scenarios.xlsx
+++ b/test-scenarios/flight-test-scenarios.xlsx
@@ -405,552 +405,728 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
-    <col min="12" max="12" width="55.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" customWidth="1"/>
+    <col min="5" max="5" width="70.83203125" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Test ID</v>
+        <v>Test Case ID*</v>
       </c>
       <c r="B1" t="str">
-        <v>Test Name</v>
+        <v>Area*</v>
       </c>
       <c r="C1" t="str">
-        <v>Trip Type</v>
+        <v>Test Case Name*</v>
       </c>
       <c r="D1" t="str">
-        <v>Origin</v>
+        <v>Test Case Description*</v>
       </c>
       <c r="E1" t="str">
-        <v>Destination</v>
+        <v>Steps To Reproduce*</v>
       </c>
       <c r="F1" t="str">
-        <v>Departure Date</v>
+        <v>Expected Results*</v>
       </c>
       <c r="G1" t="str">
-        <v>Return Date</v>
+        <v>Execution Result*</v>
       </c>
       <c r="H1" t="str">
-        <v>Adults</v>
+        <v>Observed Results (In case of failure)*</v>
       </c>
       <c r="I1" t="str">
-        <v>Children</v>
+        <v>Test Case Severity*</v>
       </c>
       <c r="J1" t="str">
-        <v>Infants</v>
+        <v>Executed By*</v>
       </c>
       <c r="K1" t="str">
-        <v>Cabin Class</v>
+        <v>Execution Date*</v>
       </c>
       <c r="L1" t="str">
-        <v>Expected Result</v>
+        <v>Created By*</v>
       </c>
       <c r="M1" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>Comments</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>BFS-001</v>
       </c>
       <c r="B2" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C2" t="str">
         <v>Round-trip domestic flight - Solo traveler</v>
       </c>
-      <c r="C2" t="str">
-        <v>Round-trip</v>
-      </c>
-      <c r="D2" t="str">
-        <v>JFK</v>
-      </c>
-      <c r="E2" t="str">
-        <v>LAX</v>
+      <c r="D2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test round-trip domestic flight search functionality. Verifies that the search form accepts valid inputs for 1 adult traveling in Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E2" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Verify trip type is set to "Round-trip"
+3. Click origin field and enter "JFK"
+4. Select "John F. Kennedy International Airport" from autocomplete
+5. Click destination field and enter "LAX"
+6. Select "Los Angeles International Airport" from autocomplete
+7. Click departure date field and select a date +21 days from today
+8. Click return date field and select a date +28 days from today
+9. Verify passenger count is 1 adult
+10. Verify cabin class is Economy
+11. Click Search button
+12. Wait for results to load</v>
       </c>
       <c r="F2" t="str">
-        <v>+21 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from JFK to LAX with prices, airlines, duration, and stop information. Both outbound and return flights are shown.</v>
       </c>
       <c r="G2" t="str">
-        <v>+28 days</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>High</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v>Economy</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>Search results displayed with multiple flight options</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M2" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>Standard domestic route test case</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>BFS-002</v>
       </c>
       <c r="B3" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C3" t="str">
         <v>Round-trip international flight - Couple</v>
       </c>
-      <c r="C3" t="str">
-        <v>Round-trip</v>
-      </c>
-      <c r="D3" t="str">
-        <v>LHR</v>
-      </c>
-      <c r="E3" t="str">
-        <v>JFK</v>
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test round-trip international flight search functionality. Verifies that the search form accepts valid inputs for 2 adults traveling in Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Verify trip type is set to "Round-trip"
+3. Click origin field and enter "LHR"
+4. Select "London Heathrow Airport" from autocomplete
+5. Click destination field and enter "JFK"
+6. Select "John F. Kennedy International Airport" from autocomplete
+7. Click departure date field and select a date +30 days from today
+8. Click return date field and select a date +37 days from today
+9. Click passenger selector and set: 2 adults
+10. Verify cabin class is Economy
+11. Click Search button
+12. Wait for results to load</v>
       </c>
       <c r="F3" t="str">
-        <v>+30 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from LHR to JFK with prices, airlines, duration, and stop information. Both outbound and return flights are shown.</v>
       </c>
       <c r="G3" t="str">
-        <v>+37 days</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>High</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v>Economy</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>Transatlantic flight options displayed with prices for 2 passengers</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M3" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>International transatlantic route</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>BFS-003</v>
       </c>
       <c r="B4" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C4" t="str">
         <v>One-way domestic short-haul flight</v>
       </c>
-      <c r="C4" t="str">
-        <v>One-way</v>
-      </c>
-      <c r="D4" t="str">
-        <v>SFO</v>
-      </c>
-      <c r="E4" t="str">
-        <v>SEA</v>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test one-way domestic flight search functionality. Verifies that the search form accepts valid inputs for 1 adult traveling in Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click trip type dropdown and select "One way"
+3. Click origin field and enter "SFO"
+4. Select "San Francisco International Airport" from autocomplete
+5. Click destination field and enter "SEA"
+6. Select "Seattle-Tacoma International Airport" from autocomplete
+7. Click departure date field and select a date +14 days from today
+8. Verify passenger count is 1 adult
+9. Verify cabin class is Economy
+10. Click Search button
+11. Wait for results to load</v>
       </c>
       <c r="F4" t="str">
-        <v>+14 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from SFO to SEA with prices, airlines, duration, and stop information.</v>
       </c>
       <c r="G4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>High</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
       </c>
       <c r="K4" t="str">
-        <v>Economy</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>One-way flight results displayed, no return date shown</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M4" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>Short domestic one-way route</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>BFS-004</v>
       </c>
       <c r="B5" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C5" t="str">
         <v>Round-trip long-haul flight - Family</v>
       </c>
-      <c r="C5" t="str">
-        <v>Round-trip</v>
-      </c>
-      <c r="D5" t="str">
-        <v>SYD</v>
-      </c>
-      <c r="E5" t="str">
-        <v>LAX</v>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test round-trip international flight search functionality. Verifies that the search form accepts valid inputs for 2 adults, 2 children traveling in Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Verify trip type is set to "Round-trip"
+3. Click origin field and enter "SYD"
+4. Select "Sydney Kingsford Smith Airport" from autocomplete
+5. Click destination field and enter "LAX"
+6. Select "Los Angeles International Airport" from autocomplete
+7. Click departure date field and select a date +45 days from today
+8. Click return date field and select a date +60 days from today
+9. Click passenger selector and set: 2 adults, 2 children
+10. Verify cabin class is Economy
+11. Click Search button
+12. Wait for results to load</v>
       </c>
       <c r="F5" t="str">
-        <v>+45 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from SYD to LAX with prices, airlines, duration, and stop information. Both outbound and return flights are shown.</v>
       </c>
       <c r="G5" t="str">
-        <v>+60 days</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>High</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
       </c>
       <c r="K5" t="str">
-        <v>Economy</v>
+        <v/>
       </c>
       <c r="L5" t="str">
-        <v>Long-haul flight options with pricing for 4 passengers</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M5" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>Long-haul transpacific family trip</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>BFS-005</v>
       </c>
       <c r="B6" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C6" t="str">
         <v>One-way international flight - Business class</v>
       </c>
-      <c r="C6" t="str">
-        <v>One-way</v>
-      </c>
-      <c r="D6" t="str">
-        <v>JFK</v>
-      </c>
-      <c r="E6" t="str">
-        <v>CDG</v>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test one-way international flight search functionality. Verifies that the search form accepts valid inputs for 1 adult traveling in Business class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click trip type dropdown and select "One way"
+3. Click origin field and enter "JFK"
+4. Select "John F. Kennedy International Airport" from autocomplete
+5. Click destination field and enter "CDG"
+6. Select "Paris Charles de Gaulle Airport" from autocomplete
+7. Click departure date field and select a date +21 days from today
+8. Verify passenger count is 1 adult
+9. Click cabin class dropdown and select "Business"
+10. Click Search button
+11. Wait for results to load</v>
       </c>
       <c r="F6" t="str">
-        <v>+21 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from JFK to CDG with prices, airlines, duration, and stop information.</v>
       </c>
       <c r="G6" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
       </c>
       <c r="K6" t="str">
-        <v>Business</v>
+        <v/>
       </c>
       <c r="L6" t="str">
-        <v>Business class flight options displayed with premium pricing</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M6" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>Premium cabin international</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>BFS-006</v>
       </c>
       <c r="B7" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C7" t="str">
         <v>Round-trip domestic - Family with infant</v>
       </c>
-      <c r="C7" t="str">
-        <v>Round-trip</v>
-      </c>
-      <c r="D7" t="str">
-        <v>ORD</v>
-      </c>
-      <c r="E7" t="str">
-        <v>MIA</v>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test round-trip domestic flight search functionality. Verifies that the search form accepts valid inputs for 2 adults, 1 child, 1 infant (lap) traveling in Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Verify trip type is set to "Round-trip"
+3. Click origin field and enter "ORD"
+4. Select "Chicago O'Hare International Airport" from autocomplete
+5. Click destination field and enter "MIA"
+6. Select "Miami International Airport" from autocomplete
+7. Click departure date field and select a date +28 days from today
+8. Click return date field and select a date +35 days from today
+9. Click passenger selector and set: 2 adults, 1 child, 1 infant (lap)
+10. Verify cabin class is Economy
+11. Click Search button
+12. Wait for results to load</v>
       </c>
       <c r="F7" t="str">
-        <v>+28 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from ORD to MIA with prices, airlines, duration, and stop information. Both outbound and return flights are shown.</v>
       </c>
       <c r="G7" t="str">
-        <v>+35 days</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
       </c>
       <c r="K7" t="str">
-        <v>Economy</v>
+        <v/>
       </c>
       <c r="L7" t="str">
-        <v>Flight options for family with infant, lap infant handling verified</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M7" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>Tests infant passenger handling</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>BFS-007</v>
       </c>
       <c r="B8" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C8" t="str">
         <v>Round-trip international - First class</v>
       </c>
-      <c r="C8" t="str">
-        <v>Round-trip</v>
-      </c>
-      <c r="D8" t="str">
-        <v>LAX</v>
-      </c>
-      <c r="E8" t="str">
-        <v>NRT</v>
+      <c r="D8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test round-trip international flight search functionality. Verifies that the search form accepts valid inputs for 2 adults traveling in First class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Verify trip type is set to "Round-trip"
+3. Click origin field and enter "LAX"
+4. Select "Los Angeles International Airport" from autocomplete
+5. Click destination field and enter "NRT"
+6. Select "Narita International Airport" from autocomplete
+7. Click departure date field and select a date +60 days from today
+8. Click return date field and select a date +74 days from today
+9. Click passenger selector and set: 2 adults
+10. Click cabin class dropdown and select "First"
+11. Click Search button
+12. Wait for results to load</v>
       </c>
       <c r="F8" t="str">
-        <v>+60 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from LAX to NRT with prices, airlines, duration, and stop information. Both outbound and return flights are shown.</v>
       </c>
       <c r="G8" t="str">
-        <v>+74 days</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>First</v>
+        <v/>
       </c>
       <c r="L8" t="str">
-        <v>First class options displayed for transpacific route</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M8" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>First class premium test</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>BFS-008</v>
       </c>
       <c r="B9" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C9" t="str">
         <v>One-way domestic - Group travel</v>
       </c>
-      <c r="C9" t="str">
-        <v>One-way</v>
-      </c>
-      <c r="D9" t="str">
-        <v>DEN</v>
-      </c>
-      <c r="E9" t="str">
-        <v>LAS</v>
+      <c r="D9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test one-way domestic flight search functionality. Verifies that the search form accepts valid inputs for 4 adults traveling in Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click trip type dropdown and select "One way"
+3. Click origin field and enter "DEN"
+4. Select "Denver International Airport" from autocomplete
+5. Click destination field and enter "LAS"
+6. Select "Las Vegas Harry Reid International Airport" from autocomplete
+7. Click departure date field and select a date +35 days from today
+8. Click passenger selector and set: 4 adults
+9. Verify cabin class is Economy
+10. Click Search button
+11. Wait for results to load</v>
       </c>
       <c r="F9" t="str">
-        <v>+35 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from DEN to LAS with prices, airlines, duration, and stop information.</v>
       </c>
       <c r="G9" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>High</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
       </c>
       <c r="K9" t="str">
-        <v>Economy</v>
+        <v/>
       </c>
       <c r="L9" t="str">
-        <v>Flight options for group of 4 adults displayed</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M9" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>Group booking test</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>BFS-009</v>
       </c>
       <c r="B10" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C10" t="str">
         <v>Round-trip short domestic - Premium Economy</v>
       </c>
-      <c r="C10" t="str">
-        <v>Round-trip</v>
-      </c>
-      <c r="D10" t="str">
-        <v>BOS</v>
-      </c>
-      <c r="E10" t="str">
-        <v>DCA</v>
+      <c r="D10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test round-trip domestic flight search functionality. Verifies that the search form accepts valid inputs for 1 adult traveling in Premium Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Verify trip type is set to "Round-trip"
+3. Click origin field and enter "BOS"
+4. Select "Boston Logan International Airport" from autocomplete
+5. Click destination field and enter "DCA"
+6. Select "Ronald Reagan Washington National Airport" from autocomplete
+7. Click departure date field and select a date +10 days from today
+8. Click return date field and select a date +12 days from today
+9. Verify passenger count is 1 adult
+10. Click cabin class dropdown and select "Premium Economy"
+11. Click Search button
+12. Wait for results to load</v>
       </c>
       <c r="F10" t="str">
-        <v>+10 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from BOS to DCA with prices, airlines, duration, and stop information. Both outbound and return flights are shown.</v>
       </c>
       <c r="G10" t="str">
-        <v>+12 days</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>High</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
       </c>
       <c r="K10" t="str">
-        <v>Premium Economy</v>
+        <v/>
       </c>
       <c r="L10" t="str">
-        <v>Premium economy options for short domestic route</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M10" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>Premium economy cabin test</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>BFS-010</v>
       </c>
       <c r="B11" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C11" t="str">
         <v>Round-trip Europe to Asia - Mixed cabin</v>
       </c>
-      <c r="C11" t="str">
-        <v>Round-trip</v>
-      </c>
-      <c r="D11" t="str">
-        <v>FRA</v>
-      </c>
-      <c r="E11" t="str">
-        <v>HKG</v>
+      <c r="D11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test round-trip international flight search functionality. Verifies that the search form accepts valid inputs for 2 adults, 1 child traveling in Business class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Verify trip type is set to "Round-trip"
+3. Click origin field and enter "FRA"
+4. Select "Frankfurt Airport" from autocomplete
+5. Click destination field and enter "HKG"
+6. Select "Hong Kong International Airport" from autocomplete
+7. Click departure date field and select a date +42 days from today
+8. Click return date field and select a date +56 days from today
+9. Click passenger selector and set: 2 adults, 1 child
+10. Click cabin class dropdown and select "Business"
+11. Click Search button
+12. Wait for results to load</v>
       </c>
       <c r="F11" t="str">
-        <v>+42 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from FRA to HKG with prices, airlines, duration, and stop information. Both outbound and return flights are shown.</v>
       </c>
       <c r="G11" t="str">
-        <v>+56 days</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
       </c>
       <c r="K11" t="str">
-        <v>Business</v>
+        <v/>
       </c>
       <c r="L11" t="str">
-        <v>Business class options for Europe-Asia route with 3 passengers</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M11" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>Europe-Asia international route</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>BFS-011</v>
       </c>
       <c r="B12" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C12" t="str">
         <v>One-way transatlantic - Large family</v>
       </c>
-      <c r="C12" t="str">
-        <v>One-way</v>
-      </c>
-      <c r="D12" t="str">
-        <v>DUB</v>
-      </c>
-      <c r="E12" t="str">
-        <v>BOS</v>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test one-way international flight search functionality. Verifies that the search form accepts valid inputs for 2 adults, 3 children traveling in Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click trip type dropdown and select "One way"
+3. Click origin field and enter "DUB"
+4. Select "Dublin Airport" from autocomplete
+5. Click destination field and enter "BOS"
+6. Select "Boston Logan International Airport" from autocomplete
+7. Click departure date field and select a date +50 days from today
+8. Click passenger selector and set: 2 adults, 3 children
+9. Verify cabin class is Economy
+10. Click Search button
+11. Wait for results to load</v>
       </c>
       <c r="F12" t="str">
-        <v>+50 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from DUB to BOS with prices, airlines, duration, and stop information.</v>
       </c>
       <c r="G12" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
       </c>
       <c r="K12" t="str">
-        <v>Economy</v>
+        <v/>
       </c>
       <c r="L12" t="str">
-        <v>Flight options for 5 passengers on transatlantic route</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M12" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>Large family booking test</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>BFS-012</v>
       </c>
       <c r="B13" t="str">
+        <v>Basic Flight Search</v>
+      </c>
+      <c r="C13" t="str">
         <v>Round-trip weekend getaway</v>
       </c>
-      <c r="C13" t="str">
-        <v>Round-trip</v>
-      </c>
-      <c r="D13" t="str">
-        <v>ATL</v>
-      </c>
-      <c r="E13" t="str">
-        <v>MCO</v>
+      <c r="D13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test round-trip domestic flight search functionality. Verifies that the search form accepts valid inputs for 2 adults, 2 children traveling in Economy class and returns flight results.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- No cached search data</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Verify trip type is set to "Round-trip"
+3. Click origin field and enter "ATL"
+4. Select "Hartsfield-Jackson Atlanta International Airport" from autocomplete
+5. Click destination field and enter "MCO"
+6. Select "Orlando International Airport" from autocomplete
+7. Click departure date field and select a date +7 days from today
+8. Click return date field and select a date +9 days from today
+9. Click passenger selector and set: 2 adults, 2 children
+10. Verify cabin class is Economy
+11. Click Search button
+12. Wait for results to load</v>
       </c>
       <c r="F13" t="str">
-        <v>+7 days</v>
+        <v>Search executes successfully. Results page displays multiple flight options from ATL to MCO with prices, airlines, duration, and stop information. Both outbound and return flights are shown.</v>
       </c>
       <c r="G13" t="str">
-        <v>+9 days</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>Not Run</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v>High</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
       </c>
       <c r="K13" t="str">
-        <v>Economy</v>
+        <v/>
       </c>
       <c r="L13" t="str">
-        <v>Short trip options for family weekend travel</v>
+        <v>Test Automation Team</v>
       </c>
       <c r="M13" t="str">
-        <v>Not Run</v>
+        <v>Short trip weekend booking</v>
       </c>
     </row>
   </sheetData>
@@ -962,994 +1138,2174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="55.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" customWidth="1"/>
+    <col min="5" max="5" width="70.83203125" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Test ID</v>
+        <v>Test Case ID*</v>
       </c>
       <c r="B1" t="str">
-        <v>Test Name</v>
+        <v>Area*</v>
       </c>
       <c r="C1" t="str">
-        <v>Search Route</v>
+        <v>Test Case Name*</v>
       </c>
       <c r="D1" t="str">
-        <v>Filter Type</v>
+        <v>Test Case Description*</v>
       </c>
       <c r="E1" t="str">
-        <v>Filter Value</v>
+        <v>Steps To Reproduce*</v>
       </c>
       <c r="F1" t="str">
-        <v>Sort By</v>
+        <v>Expected Results*</v>
       </c>
       <c r="G1" t="str">
-        <v>Expected Behavior</v>
+        <v>Execution Result*</v>
       </c>
       <c r="H1" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>Observed Results (In case of failure)*</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Test Case Severity*</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Executed By*</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Execution Date*</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Created By*</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Comments</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>FS-001</v>
       </c>
       <c r="B2" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C2" t="str">
         <v>Filter nonstop flights only</v>
       </c>
-      <c r="C2" t="str">
-        <v>JFK to LAX</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Stops</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Nonstop</v>
+      <c r="D2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test stops filtering functionality on Google Flights search results. Verifies that applying Stops filter with value "Nonstop" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route JFK to LAX
+- Filters panel is visible</v>
+      </c>
+      <c r="E2" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Locate the "Stops" filter dropdown
+8. Click to expand and select "Nonstop"
+9. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F2" t="str">
-        <v>Best</v>
+        <v>Only nonstop flights displayed, all results show 0 stops. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G2" t="str">
-        <v>Only nonstop flights displayed, all results show 0 stops</v>
+        <v>Not Run</v>
       </c>
       <c r="H2" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="3">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>High</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Basic stops filter test</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>FS-002</v>
       </c>
       <c r="B3" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C3" t="str">
         <v>Filter by 1 stop flights</v>
       </c>
-      <c r="C3" t="str">
-        <v>JFK to LAX</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Stops</v>
-      </c>
-      <c r="E3" t="str">
-        <v>1 stop</v>
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test stops filtering functionality on Google Flights search results. Verifies that applying Stops filter with value "1 stop" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route JFK to LAX
+- Filters panel is visible</v>
+      </c>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Locate the "Stops" filter dropdown
+8. Click to expand and select "1 stop"
+9. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F3" t="str">
-        <v>Best</v>
+        <v>Only flights with exactly 1 stop displayed. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G3" t="str">
-        <v>Only flights with exactly 1 stop displayed</v>
+        <v>Not Run</v>
       </c>
       <c r="H3" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="4">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>High</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M3" t="str">
+        <v>1-stop filter test</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>FS-003</v>
       </c>
       <c r="B4" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C4" t="str">
         <v>Filter by price range - Budget</v>
       </c>
-      <c r="C4" t="str">
-        <v>SFO to SEA</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Price</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Under $200</v>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test price filtering with price sorting functionality on Google Flights search results. Verifies that applying Price filter with value "Under $200" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route SFO to SEA
+- Filters panel is visible</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "SFO" and select from autocomplete
+3. Enter destination "SEA" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Locate the price slider/filter
+8. Adjust to filter flights "Under $200"
+9. Click on sort dropdown
+10. Select "Sort by Price"
+11. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F4" t="str">
-        <v>Price</v>
+        <v>All displayed flights priced under $200. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G4" t="str">
-        <v>All displayed flights priced under $200</v>
+        <v>Not Run</v>
       </c>
       <c r="H4" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="5">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>High</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Budget price filter test</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>FS-004</v>
       </c>
       <c r="B5" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C5" t="str">
         <v>Filter by single airline</v>
       </c>
-      <c r="C5" t="str">
-        <v>ORD to DFW</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Airline</v>
-      </c>
-      <c r="E5" t="str">
-        <v>United Airlines</v>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test airline filtering functionality on Google Flights search results. Verifies that applying Airline filter with value "United Airlines" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route ORD to DFW
+- Filters panel is visible</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "ORD" and select from autocomplete
+3. Enter destination "DFW" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Click on "Airlines" filter
+8. Select airline(s): United Airlines
+9. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F5" t="str">
-        <v>Best</v>
+        <v>Only United Airlines flights displayed. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G5" t="str">
-        <v>Only United Airlines flights displayed</v>
+        <v>Not Run</v>
       </c>
       <c r="H5" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="6">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>High</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Single airline filter</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>FS-005</v>
       </c>
       <c r="B6" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C6" t="str">
         <v>Filter by multiple airlines</v>
       </c>
-      <c r="C6" t="str">
-        <v>JFK to LAX</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Airline</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Delta, American</v>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test airline filtering functionality on Google Flights search results. Verifies that applying Airline filter with value "Delta, American" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route JFK to LAX
+- Filters panel is visible</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Click on "Airlines" filter
+8. Select airline(s): Delta
+9. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F6" t="str">
-        <v>Best</v>
+        <v>Only Delta and American Airlines flights displayed. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G6" t="str">
-        <v>Only Delta and American Airlines flights displayed</v>
+        <v>Not Run</v>
       </c>
       <c r="H6" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="7">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v>High</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Multiple airline filter</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>FS-006</v>
       </c>
       <c r="B7" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C7" t="str">
         <v>Filter by morning departure time</v>
       </c>
-      <c r="C7" t="str">
-        <v>BOS to MIA</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Time</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Departure before 12 PM</v>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test time filtering with duration sorting functionality on Google Flights search results. Verifies that applying Time filter with value "Departure before 12 PM" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route BOS to MIA
+- Filters panel is visible</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "BOS" and select from autocomplete
+3. Enter destination "MIA" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Click on "Times" filter
+8. Adjust time slider to "Departure before 12 PM"
+9. Click on sort dropdown
+10. Select "Sort by Duration"
+11. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F7" t="str">
-        <v>Duration</v>
+        <v>All flights depart before noon. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G7" t="str">
-        <v>All flights depart before noon</v>
+        <v>Not Run</v>
       </c>
       <c r="H7" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="8">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v>High</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Departure time filter</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>FS-007</v>
       </c>
       <c r="B8" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C8" t="str">
         <v>Filter by evening arrival time</v>
       </c>
-      <c r="C8" t="str">
-        <v>LAX to JFK</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Time</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Arrival 6 PM - midnight</v>
+      <c r="D8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test time filtering functionality on Google Flights search results. Verifies that applying Time filter with value "Arrival 6 PM - midnight" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route LAX to JFK
+- Filters panel is visible</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "LAX" and select from autocomplete
+3. Enter destination "JFK" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Click on "Times" filter
+8. Adjust time slider to "Arrival 6 PM - midnight"
+9. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F8" t="str">
-        <v>Best</v>
+        <v>All flights arrive in the evening hours. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G8" t="str">
-        <v>All flights arrive in the evening hours</v>
+        <v>Not Run</v>
       </c>
       <c r="H8" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="9">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>High</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Arrival time filter</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>FS-008</v>
       </c>
       <c r="B9" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C9" t="str">
         <v>Filter by maximum duration</v>
       </c>
-      <c r="C9" t="str">
-        <v>JFK to LAX</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Duration</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Under 6 hours</v>
+      <c r="D9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test duration filtering with duration sorting functionality on Google Flights search results. Verifies that applying Duration filter with value "Under 6 hours" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route JFK to LAX
+- Filters panel is visible</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Locate the "Duration" filter
+8. Set maximum duration to "Under 6 hours"
+9. Click on sort dropdown
+10. Select "Sort by Duration"
+11. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F9" t="str">
-        <v>Duration</v>
+        <v>All flights have total duration under 6 hours. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G9" t="str">
-        <v>All flights have total duration under 6 hours</v>
+        <v>Not Run</v>
       </c>
       <c r="H9" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="10">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>High</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Duration filter test</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>FS-009</v>
       </c>
       <c r="B10" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C10" t="str">
         <v>Sort by cheapest price</v>
       </c>
-      <c r="C10" t="str">
-        <v>DEN to LAS</v>
-      </c>
-      <c r="D10" t="str">
-        <v>None</v>
-      </c>
-      <c r="E10" t="str">
-        <v>N/A</v>
+      <c r="D10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test default sorting with price sorting functionality on Google Flights search results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route DEN to LAS
+- Filters panel is visible</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "DEN" and select from autocomplete
+3. Enter destination "LAS" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Click on sort dropdown
+8. Select "Sort by Price"
+9. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F10" t="str">
-        <v>Price</v>
+        <v>Flights sorted from lowest to highest price. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G10" t="str">
-        <v>Flights sorted from lowest to highest price</v>
+        <v>Not Run</v>
       </c>
       <c r="H10" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="11">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>High</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Price sorting test</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>FS-010</v>
       </c>
       <c r="B11" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C11" t="str">
         <v>Sort by fastest duration</v>
       </c>
-      <c r="C11" t="str">
-        <v>ATL to MCO</v>
-      </c>
-      <c r="D11" t="str">
-        <v>None</v>
-      </c>
-      <c r="E11" t="str">
-        <v>N/A</v>
+      <c r="D11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test default sorting with duration sorting functionality on Google Flights search results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route ATL to MCO
+- Filters panel is visible</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "ATL" and select from autocomplete
+3. Enter destination "MCO" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Click on sort dropdown
+8. Select "Sort by Duration"
+9. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F11" t="str">
-        <v>Duration</v>
+        <v>Shortest flights appear first, duration ascending. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G11" t="str">
-        <v>Shortest flights appear first, duration ascending</v>
+        <v>Not Run</v>
       </c>
       <c r="H11" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="12">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>High</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Duration sorting test</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>FS-011</v>
       </c>
       <c r="B12" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C12" t="str">
         <v>Combined filters - Nonstop + Price</v>
       </c>
-      <c r="C12" t="str">
-        <v>JFK to LAX</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Stops + Price</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Nonstop, Under $400</v>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test stops + price filtering functionality on Google Flights search results. Verifies that applying Stops + Price filter with value "Nonstop, Under $400" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route JFK to LAX
+- Filters panel is visible</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Locate the "Stops" filter dropdown
+8. Click to expand and select "Nonstop"
+9. Locate the price slider/filter
+10. Adjust to filter flights "Under $400"
+11. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F12" t="str">
-        <v>Best</v>
+        <v>Only nonstop flights under $400 displayed. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G12" t="str">
-        <v>Only nonstop flights under $400 displayed</v>
+        <v>Not Run</v>
       </c>
       <c r="H12" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="13">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Combined filter test</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>FS-012</v>
       </c>
       <c r="B13" t="str">
+        <v>Filtering and Sorting</v>
+      </c>
+      <c r="C13" t="str">
         <v>Combined filters - Airline + Time + Stops</v>
       </c>
-      <c r="C13" t="str">
-        <v>ORD to LAX</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Airline + Time + Stops</v>
-      </c>
-      <c r="E13" t="str">
-        <v>United, Morning departure, Nonstop</v>
+      <c r="D13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test airline + time + stops filtering with price sorting functionality on Google Flights search results. Verifies that applying Airline + Time + Stops filter with value "United, Morning departure, Nonstop" correctly filters the results.
+Pre-requisites:
+- Google Flights is accessible
+- Search results are available for route ORD to LAX
+- Filters panel is visible</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "ORD" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Select departure date +21 days from today
+5. Click Search button
+6. Wait for search results to load
+7. Click on "Airlines" filter
+8. Select airline(s): United
+9. Click on "Times" filter
+10. Adjust time slider to "Morning departure"
+11. Locate the "Stops" filter dropdown
+12. Click to expand and select "Nonstop"
+13. Click on sort dropdown
+14. Select "Sort by Price"
+15. Verify filtered/sorted results are displayed correctly</v>
       </c>
       <c r="F13" t="str">
-        <v>Price</v>
+        <v>United nonstop morning flights only. Results update dynamically and accurately reflect applied filters.</v>
       </c>
       <c r="G13" t="str">
-        <v>United nonstop morning flights only</v>
+        <v>Not Run</v>
       </c>
       <c r="H13" t="str">
-        <v>Not Run</v>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Complex combined filter test</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M13"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="55.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" customWidth="1"/>
+    <col min="5" max="5" width="70.83203125" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Test ID</v>
+        <v>Test Case ID*</v>
       </c>
       <c r="B1" t="str">
-        <v>Test Name</v>
+        <v>Area*</v>
       </c>
       <c r="C1" t="str">
-        <v>Date Type</v>
+        <v>Test Case Name*</v>
       </c>
       <c r="D1" t="str">
-        <v>Date Value</v>
+        <v>Test Case Description*</v>
       </c>
       <c r="E1" t="str">
-        <v>Expected Behavior</v>
+        <v>Steps To Reproduce*</v>
       </c>
       <c r="F1" t="str">
-        <v>Edge Case</v>
+        <v>Expected Results*</v>
       </c>
       <c r="G1" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>Execution Result*</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Observed Results (In case of failure)*</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Test Case Severity*</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Executed By*</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Execution Date*</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Created By*</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Comments</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>DS-001</v>
       </c>
       <c r="B2" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C2" t="str">
         <v>Standard departure date selection - 3 weeks out</v>
       </c>
-      <c r="C2" t="str">
-        <v>Departure</v>
-      </c>
-      <c r="D2" t="str">
-        <v>+21 days</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Date is selectable, calendar highlights selection</v>
+      <c r="D2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure date field. Verifies that the calendar component allows selection of +21 days and correctly updates the search form.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E2" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Navigate calendar to select date: +21 days
+6. Verify date is properly selected and highlighted
+7. Observe system behavior for the selection</v>
       </c>
       <c r="F2" t="str">
-        <v>No</v>
+        <v>Date is selectable, calendar highlights selection. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G2" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>High</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Standard date selection</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>DS-002</v>
       </c>
       <c r="B3" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C3" t="str">
         <v>Standard return date selection - 1 week after departure</v>
       </c>
-      <c r="C3" t="str">
-        <v>Return</v>
-      </c>
-      <c r="D3" t="str">
-        <v>+28 days</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Return date selected, range highlighted in calendar</v>
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for return date field. Verifies that the calendar component allows selection of +28 days and correctly updates the search form.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Select a departure date first (+21 days)
+5. Click on return date field to open calendar
+6. Attempt to select return date: +28 days
+7. Observe system behavior for the selection</v>
       </c>
       <c r="F3" t="str">
-        <v>No</v>
+        <v>Return date selected, range highlighted in calendar. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G3" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>High</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Return date selection</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>DS-003</v>
       </c>
       <c r="B4" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C4" t="str">
         <v>One-way date selection</v>
       </c>
-      <c r="C4" t="str">
-        <v>One-way</v>
-      </c>
-      <c r="D4" t="str">
-        <v>+14 days</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Single date selected, no return date field shown</v>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for one-way date field. Verifies that the calendar component allows selection of +14 days and correctly updates the search form.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click trip type dropdown and select "One way"
+5. Click on departure date field to open calendar
+6. Navigate calendar to select date: +14 days
+7. Verify date is properly selected in the field
+8. Click Search button
+9. Verify search proceeds with selected date</v>
       </c>
       <c r="F4" t="str">
-        <v>No</v>
+        <v>Single date selected, no return date field shown. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G4" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>High</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M4" t="str">
+        <v>One-way trip date</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>DS-004</v>
       </c>
       <c r="B5" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C5" t="str">
         <v>Same-day departure and return</v>
       </c>
-      <c r="C5" t="str">
-        <v>Departure/Return</v>
-      </c>
-      <c r="D5" t="str">
-        <v>+7 days (same day)</v>
-      </c>
-      <c r="E5" t="str">
-        <v>May allow or show warning about same-day return</v>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure/return date field. This is an edge case test that verifies system behavior for same-day departure and return.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Select departure date as specified: +7 days (same day)
+6. Click on return date field
+7. Select return date as specified: same/next day
+8. Verify both dates are properly selected
+9. Click Search button and observe results</v>
       </c>
       <c r="F5" t="str">
-        <v>Yes</v>
+        <v>May allow or show warning about same-day return. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G5" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Same-day trip edge case (Edge Case)</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>DS-005</v>
       </c>
       <c r="B6" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C6" t="str">
         <v>Past date selection attempt</v>
       </c>
-      <c r="C6" t="str">
-        <v>Departure</v>
-      </c>
-      <c r="D6" t="str">
-        <v>-1 day</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Date should be disabled/grayed out, not selectable</v>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure date field. This is an edge case test that verifies system behavior for past date selection attempt.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Navigate calendar to select date: -1 day
+6. Verify date is properly selected and highlighted
+7. Observe system behavior for the selection</v>
       </c>
       <c r="F6" t="str">
-        <v>Yes</v>
+        <v>Date should be disabled/grayed out, not selectable. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G6" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Past date validation (Edge Case)</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>DS-006</v>
       </c>
       <c r="B7" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C7" t="str">
         <v>Far future date - 11 months out</v>
       </c>
-      <c r="C7" t="str">
-        <v>Departure</v>
-      </c>
-      <c r="D7" t="str">
-        <v>+330 days</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Date may be selectable with limited availability warning</v>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure date field. This is an edge case test that verifies system behavior for far future date - 11 months out.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Navigate calendar to select date: +330 days
+6. Verify date is properly selected and highlighted
+7. Observe system behavior for the selection</v>
       </c>
       <c r="F7" t="str">
-        <v>Yes</v>
+        <v>Date may be selectable with limited availability warning. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G7" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Far future booking test (Edge Case)</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>DS-007</v>
       </c>
       <c r="B8" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C8" t="str">
         <v>Return date before departure attempt</v>
       </c>
-      <c r="C8" t="str">
-        <v>Return</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Before departure</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Error message or auto-correction of dates</v>
+      <c r="D8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for return date field. This is an edge case test that verifies system behavior for return date before departure attempt.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Select a departure date first (+21 days)
+5. Click on return date field to open calendar
+6. Attempt to select return date: Before departure
+7. Observe system behavior for the selection</v>
       </c>
       <c r="F8" t="str">
-        <v>Yes</v>
+        <v>Error message or auto-correction of dates. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G8" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Invalid date order test (Edge Case)</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>DS-008</v>
       </c>
       <c r="B9" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C9" t="str">
         <v>Calendar month navigation - Forward</v>
       </c>
-      <c r="C9" t="str">
-        <v>Departure</v>
-      </c>
-      <c r="D9" t="str">
-        <v>+60 days</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Calendar navigates to correct month, dates selectable</v>
+      <c r="D9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure date field. Verifies that the calendar component allows selection of +60 days and correctly updates the search form.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Navigate calendar to select date: +60 days
+6. Verify date is properly selected and highlighted
+7. Observe system behavior for the selection</v>
       </c>
       <c r="F9" t="str">
-        <v>No</v>
+        <v>Calendar navigates to correct month, dates selectable. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G9" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>High</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Calendar navigation test</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>DS-009</v>
       </c>
       <c r="B10" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C10" t="str">
         <v>Calendar month navigation - Year boundary</v>
       </c>
-      <c r="C10" t="str">
-        <v>Departure</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Dec 31 to Jan 1</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Year increments correctly when crossing year boundary</v>
+      <c r="D10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure date field. This is an edge case test that verifies system behavior for calendar month navigation - year boundary.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Navigate calendar to select date: Dec 31 to Jan 1
+6. Verify date is properly selected and highlighted
+7. Observe system behavior for the selection</v>
       </c>
       <c r="F10" t="str">
-        <v>Yes</v>
+        <v>Year increments correctly when crossing year boundary. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G10" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Year boundary edge case (Edge Case)</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>DS-010</v>
       </c>
       <c r="B11" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C11" t="str">
         <v>Today's date selection</v>
       </c>
-      <c r="C11" t="str">
-        <v>Departure</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Today</v>
-      </c>
-      <c r="E11" t="str">
-        <v>May be selectable for last-minute flights or disabled</v>
+      <c r="D11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure date field. This is an edge case test that verifies system behavior for today's date selection.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Navigate calendar to select date: Today
+6. Verify date is properly selected and highlighted
+7. Observe system behavior for the selection</v>
       </c>
       <c r="F11" t="str">
-        <v>Yes</v>
+        <v>May be selectable for last-minute flights or disabled. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G11" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Same-day booking test (Edge Case)</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>DS-011</v>
       </c>
       <c r="B12" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C12" t="str">
         <v>Weekend trip dates - Fri to Sun</v>
       </c>
-      <c r="C12" t="str">
-        <v>Departure/Return</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Next Friday to Sunday</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Short trip dates selected correctly</v>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure/return date field. Verifies that the calendar component allows selection of Next Friday to Sunday and correctly updates the search form.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Select departure date as specified: Next Friday to Sunday
+6. Click on return date field
+7. Select return date as specified: same/next day
+8. Verify both dates are properly selected
+9. Click Search button and observe results</v>
       </c>
       <c r="F12" t="str">
-        <v>No</v>
+        <v>Short trip dates selected correctly. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G12" t="str">
         <v>Not Run</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>High</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Weekend trip selection</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>DS-012</v>
       </c>
       <c r="B13" t="str">
+        <v>Date Selection</v>
+      </c>
+      <c r="C13" t="str">
         <v>Extended trip - 30+ days</v>
       </c>
-      <c r="C13" t="str">
-        <v>Departure/Return</v>
-      </c>
-      <c r="D13" t="str">
-        <v>+21 days, +52 days</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Long duration trip handled correctly</v>
+      <c r="D13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test date selection functionality for departure/return date field. Verifies that the calendar component allows selection of +21 days, +52 days and correctly updates the search form.
+Pre-requisites:
+- Google Flights is accessible
+- Browser is open
+- Calendar widget is functional</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Enter origin "JFK" and select from autocomplete
+3. Enter destination "LAX" and select from autocomplete
+4. Click on departure date field to open calendar
+5. Select departure date as specified: +21 days
+6. Click on return date field
+7. Select return date as specified: +52 days
+8. Verify both dates are properly selected
+9. Click Search button and observe results</v>
       </c>
       <c r="F13" t="str">
-        <v>No</v>
+        <v>Long duration trip handled correctly. Calendar component responds appropriately to user interaction.</v>
       </c>
       <c r="G13" t="str">
         <v>Not Run</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v>High</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Extended trip selection</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M13"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="6" width="40.83203125" customWidth="1"/>
-    <col min="7" max="7" width="55.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" customWidth="1"/>
+    <col min="5" max="5" width="70.83203125" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Test ID</v>
+        <v>Test Case ID*</v>
       </c>
       <c r="B1" t="str">
-        <v>Test Name</v>
+        <v>Area*</v>
       </c>
       <c r="C1" t="str">
-        <v>Segment 1</v>
+        <v>Test Case Name*</v>
       </c>
       <c r="D1" t="str">
-        <v>Segment 2</v>
+        <v>Test Case Description*</v>
       </c>
       <c r="E1" t="str">
-        <v>Segment 3</v>
+        <v>Steps To Reproduce*</v>
       </c>
       <c r="F1" t="str">
-        <v>Segment 4</v>
+        <v>Expected Results*</v>
       </c>
       <c r="G1" t="str">
-        <v>Expected Result</v>
+        <v>Execution Result*</v>
       </c>
       <c r="H1" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>Observed Results (In case of failure)*</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Test Case Severity*</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Executed By*</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Execution Date*</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Created By*</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Comments</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>MC-001</v>
       </c>
       <c r="B2" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C2" t="str">
         <v>US Triangle - 3 segments</v>
       </c>
-      <c r="C2" t="str">
-        <v>JFK to LAX, +21 days</v>
-      </c>
-      <c r="D2" t="str">
-        <v>LAX to ORD, +25 days</v>
-      </c>
-      <c r="E2" t="str">
-        <v>ORD to JFK, +29 days</v>
+      <c r="D2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 3 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E2" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "JFK"
+5. Select "John F. Kennedy International Airport" from autocomplete
+6. Click destination field and enter "LAX"
+7. Select "Los Angeles International Airport" from autocomplete
+8. Click date field and select date +21 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "LAX"
+11. Select "Los Angeles International Airport" from autocomplete
+12. Click destination field and enter "ORD"
+13. Select "Chicago O'Hare International Airport" from autocomplete
+14. Click date field and select date +25 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "ORD"
+17. Select "Chicago O'Hare International Airport" from autocomplete
+18. Click destination field and enter "JFK"
+19. Select "John F. Kennedy International Airport" from autocomplete
+20. Click date field and select date +29 days from today
+21. Review all segments are correctly entered
+22. Click Search button
+23. Wait for multi-city results to load</v>
       </c>
       <c r="F2" t="str">
-        <v>N/A</v>
+        <v>Multi-city search returns options for all 3 segments. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G2" t="str">
-        <v>Multi-city search returns options for all 3 segments</v>
+        <v>Not Run</v>
       </c>
       <c r="H2" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="3">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>High</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Basic US multi-city triangle</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>MC-002</v>
       </c>
       <c r="B3" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C3" t="str">
         <v>European Tour - 4 segments</v>
       </c>
-      <c r="C3" t="str">
-        <v>LHR to CDG, +30 days</v>
-      </c>
-      <c r="D3" t="str">
-        <v>CDG to FCO, +34 days</v>
-      </c>
-      <c r="E3" t="str">
-        <v>FCO to BCN, +38 days</v>
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 4 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "LHR"
+5. Select "London Heathrow Airport" from autocomplete
+6. Click destination field and enter "CDG"
+7. Select "Paris Charles de Gaulle Airport" from autocomplete
+8. Click date field and select date +30 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "CDG"
+11. Select "Paris Charles de Gaulle Airport" from autocomplete
+12. Click destination field and enter "FCO"
+13. Select "Rome Fiumicino Airport" from autocomplete
+14. Click date field and select date +34 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "FCO"
+17. Select "Rome Fiumicino Airport" from autocomplete
+18. Click destination field and enter "BCN"
+19. Select "Barcelona-El Prat Airport" from autocomplete
+20. Click date field and select date +38 days from today
+21. Click "Add flight" to add next segment
+22. For segment 4: Click origin field and enter "BCN"
+23. Select "Barcelona-El Prat Airport" from autocomplete
+24. Click destination field and enter "LHR"
+25. Select "London Heathrow Airport" from autocomplete
+26. Click date field and select date +42 days from today
+27. Review all segments are correctly entered
+28. Click Search button
+29. Wait for multi-city results to load</v>
       </c>
       <c r="F3" t="str">
-        <v>BCN to LHR, +42 days</v>
+        <v>Full European itinerary with 4 flights displayed. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G3" t="str">
-        <v>Full European itinerary with 4 flights displayed</v>
+        <v>Not Run</v>
       </c>
       <c r="H3" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="4">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M3" t="str">
+        <v>European tour itinerary</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>MC-003</v>
       </c>
       <c r="B4" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C4" t="str">
         <v>Open jaw international - No return to origin</v>
       </c>
-      <c r="C4" t="str">
-        <v>SFO to NRT, +28 days</v>
-      </c>
-      <c r="D4" t="str">
-        <v>HND to SIN, +35 days</v>
-      </c>
-      <c r="E4" t="str">
-        <v>SIN to SFO, +42 days</v>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 3 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "SFO"
+5. Select "San Francisco International Airport" from autocomplete
+6. Click destination field and enter "NRT"
+7. Select "Narita International Airport" from autocomplete
+8. Click date field and select date +28 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "HND"
+11. Select "Tokyo Haneda Airport" from autocomplete
+12. Click destination field and enter "SIN"
+13. Select "Singapore Changi Airport" from autocomplete
+14. Click date field and select date +35 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "SIN"
+17. Select "Singapore Changi Airport" from autocomplete
+18. Click destination field and enter "SFO"
+19. Select "San Francisco International Airport" from autocomplete
+20. Click date field and select date +42 days from today
+21. Review all segments are correctly entered
+22. Click Search button
+23. Wait for multi-city results to load</v>
       </c>
       <c r="F4" t="str">
-        <v>N/A</v>
+        <v>Open jaw trip allowed, ends at different city than start. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G4" t="str">
-        <v>Open jaw trip allowed, ends at different city than start</v>
+        <v>Not Run</v>
       </c>
       <c r="H4" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="5">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>High</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Open jaw routing</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
       <c r="A5" t="str">
         <v>MC-004</v>
       </c>
       <c r="B5" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C5" t="str">
         <v>Transatlantic multi-city</v>
       </c>
-      <c r="C5" t="str">
-        <v>JFK to LHR, +21 days</v>
-      </c>
-      <c r="D5" t="str">
-        <v>LHR to CDG, +25 days</v>
-      </c>
-      <c r="E5" t="str">
-        <v>CDG to JFK, +30 days</v>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 3 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "JFK"
+5. Select "John F. Kennedy International Airport" from autocomplete
+6. Click destination field and enter "LHR"
+7. Select "London Heathrow Airport" from autocomplete
+8. Click date field and select date +21 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "LHR"
+11. Select "London Heathrow Airport" from autocomplete
+12. Click destination field and enter "CDG"
+13. Select "Paris Charles de Gaulle Airport" from autocomplete
+14. Click date field and select date +25 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "CDG"
+17. Select "Paris Charles de Gaulle Airport" from autocomplete
+18. Click destination field and enter "JFK"
+19. Select "John F. Kennedy International Airport" from autocomplete
+20. Click date field and select date +30 days from today
+21. Review all segments are correctly entered
+22. Click Search button
+23. Wait for multi-city results to load</v>
       </c>
       <c r="F5" t="str">
-        <v>N/A</v>
+        <v>International multi-city with return to origin. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G5" t="str">
-        <v>International multi-city with return to origin</v>
+        <v>Not Run</v>
       </c>
       <c r="H5" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="6">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>High</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Transatlantic multi-city</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>MC-005</v>
       </c>
       <c r="B6" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C6" t="str">
         <v>Same-day connection segments</v>
       </c>
-      <c r="C6" t="str">
-        <v>LAX to DEN, +21 days</v>
-      </c>
-      <c r="D6" t="str">
-        <v>DEN to ORD, +21 days</v>
-      </c>
-      <c r="E6" t="str">
-        <v>ORD to JFK, +24 days</v>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 3 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "LAX"
+5. Select "Los Angeles International Airport" from autocomplete
+6. Click destination field and enter "DEN"
+7. Select "Denver International Airport" from autocomplete
+8. Click date field and select date +21 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "DEN"
+11. Select "Denver International Airport" from autocomplete
+12. Click destination field and enter "ORD"
+13. Select "Chicago O'Hare International Airport" from autocomplete
+14. Click date field and select date +21 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "ORD"
+17. Select "Chicago O'Hare International Airport" from autocomplete
+18. Click destination field and enter "JFK"
+19. Select "John F. Kennedy International Airport" from autocomplete
+20. Click date field and select date +24 days from today
+21. Review all segments are correctly entered
+22. Click Search button
+23. Wait for multi-city results to load</v>
       </c>
       <c r="F6" t="str">
-        <v>N/A</v>
+        <v>Same-day connections handled, may show tight connection warning. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G6" t="str">
-        <v>Same-day connections handled, may show tight connection warning</v>
+        <v>Not Run</v>
       </c>
       <c r="H6" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="7">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Same-day segments test</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>MC-006</v>
       </c>
       <c r="B7" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C7" t="str">
         <v>Large date gaps between segments</v>
       </c>
-      <c r="C7" t="str">
-        <v>BOS to MIA, +14 days</v>
-      </c>
-      <c r="D7" t="str">
-        <v>MIA to DEN, +28 days</v>
-      </c>
-      <c r="E7" t="str">
-        <v>DEN to BOS, +42 days</v>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 3 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "BOS"
+5. Select "Boston Logan International Airport" from autocomplete
+6. Click destination field and enter "MIA"
+7. Select "Miami International Airport" from autocomplete
+8. Click date field and select date +14 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "MIA"
+11. Select "Miami International Airport" from autocomplete
+12. Click destination field and enter "DEN"
+13. Select "Denver International Airport" from autocomplete
+14. Click date field and select date +28 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "DEN"
+17. Select "Denver International Airport" from autocomplete
+18. Click destination field and enter "BOS"
+19. Select "Boston Logan International Airport" from autocomplete
+20. Click date field and select date +42 days from today
+21. Review all segments are correctly entered
+22. Click Search button
+23. Wait for multi-city results to load</v>
       </c>
       <c r="F7" t="str">
-        <v>N/A</v>
+        <v>Large gaps between segments allowed for multi-city. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G7" t="str">
-        <v>Large gaps between segments allowed for multi-city</v>
+        <v>Not Run</v>
       </c>
       <c r="H7" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="8">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v>High</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Large gap multi-city</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>MC-007</v>
       </c>
       <c r="B8" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C8" t="str">
         <v>Asia-Pacific tour - 4 segments</v>
       </c>
-      <c r="C8" t="str">
-        <v>LAX to NRT, +30 days</v>
-      </c>
-      <c r="D8" t="str">
-        <v>NRT to HKG, +35 days</v>
-      </c>
-      <c r="E8" t="str">
-        <v>HKG to SIN, +40 days</v>
+      <c r="D8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 4 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "LAX"
+5. Select "Los Angeles International Airport" from autocomplete
+6. Click destination field and enter "NRT"
+7. Select "Narita International Airport" from autocomplete
+8. Click date field and select date +30 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "NRT"
+11. Select "Narita International Airport" from autocomplete
+12. Click destination field and enter "HKG"
+13. Select "Hong Kong International Airport" from autocomplete
+14. Click date field and select date +35 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "HKG"
+17. Select "Hong Kong International Airport" from autocomplete
+18. Click destination field and enter "SIN"
+19. Select "Singapore Changi Airport" from autocomplete
+20. Click date field and select date +40 days from today
+21. Click "Add flight" to add next segment
+22. For segment 4: Click origin field and enter "SIN"
+23. Select "Singapore Changi Airport" from autocomplete
+24. Click destination field and enter "LAX"
+25. Select "Los Angeles International Airport" from autocomplete
+26. Click date field and select date +45 days from today
+27. Review all segments are correctly entered
+28. Click Search button
+29. Wait for multi-city results to load</v>
       </c>
       <c r="F8" t="str">
-        <v>SIN to LAX, +45 days</v>
+        <v>Complex Asia-Pacific routing with return to US. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G8" t="str">
-        <v>Complex Asia-Pacific routing with return to US</v>
+        <v>Not Run</v>
       </c>
       <c r="H8" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="9">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Asia-Pacific tour</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>MC-008</v>
       </c>
       <c r="B9" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C9" t="str">
         <v>Mixed domestic and international</v>
       </c>
-      <c r="C9" t="str">
-        <v>JFK to LAX, +21 days</v>
-      </c>
-      <c r="D9" t="str">
-        <v>LAX to NRT, +25 days</v>
-      </c>
-      <c r="E9" t="str">
-        <v>NRT to JFK, +35 days</v>
+      <c r="D9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 3 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "JFK"
+5. Select "John F. Kennedy International Airport" from autocomplete
+6. Click destination field and enter "LAX"
+7. Select "Los Angeles International Airport" from autocomplete
+8. Click date field and select date +21 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "LAX"
+11. Select "Los Angeles International Airport" from autocomplete
+12. Click destination field and enter "NRT"
+13. Select "Narita International Airport" from autocomplete
+14. Click date field and select date +25 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "NRT"
+17. Select "Narita International Airport" from autocomplete
+18. Click destination field and enter "JFK"
+19. Select "John F. Kennedy International Airport" from autocomplete
+20. Click date field and select date +35 days from today
+21. Review all segments are correctly entered
+22. Click Search button
+23. Wait for multi-city results to load</v>
       </c>
       <c r="F9" t="str">
-        <v>N/A</v>
+        <v>Mixed routing with domestic and international segments. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G9" t="str">
-        <v>Mixed routing with domestic and international segments</v>
+        <v>Not Run</v>
       </c>
       <c r="H9" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="10">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>High</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Mixed routing test</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>MC-009</v>
       </c>
       <c r="B10" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C10" t="str">
         <v>Maximum segments test - 5 segments</v>
       </c>
-      <c r="C10" t="str">
-        <v>JFK to ORD, +14 days</v>
-      </c>
-      <c r="D10" t="str">
-        <v>ORD to DEN, +17 days</v>
-      </c>
-      <c r="E10" t="str">
-        <v>DEN to LAX, +20 days</v>
+      <c r="D10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 5 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "JFK"
+5. Select "John F. Kennedy International Airport" from autocomplete
+6. Click destination field and enter "ORD"
+7. Select "Chicago O'Hare International Airport" from autocomplete
+8. Click date field and select date +14 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "ORD"
+11. Select "Chicago O'Hare International Airport" from autocomplete
+12. Click destination field and enter "DEN"
+13. Select "Denver International Airport" from autocomplete
+14. Click date field and select date +17 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "DEN"
+17. Select "Denver International Airport" from autocomplete
+18. Click destination field and enter "LAX"
+19. Select "Los Angeles International Airport" from autocomplete
+20. Click date field and select date +20 days from today
+21. Click "Add flight" to add next segment
+22. For segment 4: Click origin field and enter "LAX"
+23. Select "Los Angeles International Airport" from autocomplete
+24. Click destination field and enter "SEA"
+25. Select "Seattle-Tacoma International Airport" from autocomplete
+26. Click date field and select date +23 days from today
+27. Click "Add flight" to add next segment
+28. For segment 5: Click origin field and enter "SEA"
+29. Select "Seattle-Tacoma International Airport" from autocomplete
+30. Click destination field and enter "JFK"
+31. Select "John F. Kennedy International Airport" from autocomplete
+32. Click date field and select date +26 days from today
+33. Review all segments are correctly entered
+34. Click Search button
+35. Wait for multi-city results to load</v>
       </c>
       <c r="F10" t="str">
-        <v>LAX to SEA, +23 days; SEA to JFK, +26 days</v>
+        <v>System handles maximum allowed segments. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G10" t="str">
-        <v>System handles maximum allowed segments</v>
+        <v>Not Run</v>
       </c>
       <c r="H10" t="str">
-        <v>Not Run</v>
-      </c>
-    </row>
-    <row r="11">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Maximum segments boundary</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>MC-010</v>
       </c>
       <c r="B11" t="str">
+        <v>Multi-City Booking</v>
+      </c>
+      <c r="C11" t="str">
         <v>Remove and add segment</v>
       </c>
-      <c r="C11" t="str">
-        <v>ATL to DFW, +21 days</v>
-      </c>
-      <c r="D11" t="str">
-        <v>DFW to PHX, +24 days</v>
-      </c>
-      <c r="E11" t="str">
-        <v>PHX to ATL, +27 days</v>
+      <c r="D11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Test multi-city flight search functionality with 3 flight segments. Verifies that the system correctly handles complex itineraries with multiple origins and destinations.
+Pre-requisites:
+- Google Flights is accessible
+- Multi-city option is available
+- All airports in the route are serviceable</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Navigate to https://www.google.com/travel/flights
+2. Click on trip type dropdown and select "Multi-city"
+3. Wait for multi-city form to load
+4. For segment 1: Click origin field and enter "ATL"
+5. Select "Hartsfield-Jackson Atlanta International Airport" from autocomplete
+6. Click destination field and enter "DFW"
+7. Select "Dallas/Fort Worth International Airport" from autocomplete
+8. Click date field and select date +21 days from today
+9. Click "Add flight" to add next segment
+10. For segment 2: Click origin field and enter "DFW"
+11. Select "Dallas/Fort Worth International Airport" from autocomplete
+12. Click destination field and enter "PHX"
+13. Select "Phoenix Sky Harbor International Airport" from autocomplete
+14. Click date field and select date +24 days from today
+15. Click "Add flight" to add next segment
+16. For segment 3: Click origin field and enter "PHX"
+17. Select "Phoenix Sky Harbor International Airport" from autocomplete
+18. Click destination field and enter "ATL"
+19. Select "Hartsfield-Jackson Atlanta International Airport" from autocomplete
+20. Click date field and select date +27 days from today
+21. Review all segments are correctly entered
+22. Click Search button
+23. Wait for multi-city results to load</v>
       </c>
       <c r="F11" t="str">
-        <v>N/A</v>
+        <v>Can remove middle segment and add new one without data loss. All flight segments are searchable and display pricing.</v>
       </c>
       <c r="G11" t="str">
-        <v>Can remove middle segment and add new one without data loss</v>
+        <v>Not Run</v>
       </c>
       <c r="H11" t="str">
-        <v>Not Run</v>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v>Test Automation Team</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Segment modification test</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M11"/>
   </ignoredErrors>
 </worksheet>
 </file>